--- a/data/trans_orig/SATIS_SUEÑO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SATIS_SUEÑO-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Satisfacción global del sueño</t>
+          <t>Satisfacción global del sueño (tasa de respuesta: 98,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/SATIS_SUEÑO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SATIS_SUEÑO-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>7,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 8,51</t>
+          <t>7,71; 8,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,9</t>
+          <t>0,18; 0,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 8,02</t>
+          <t>7,45; 8,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 8,15</t>
+          <t>7,45; 8,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,21</t>
+          <t>0,41; 1,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 7,57</t>
+          <t>7,11; 7,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 8,26</t>
+          <t>7,7; 8,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,84</t>
+          <t>0,35; 0,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,74</t>
+          <t>7,36; 7,74</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 8,08</t>
+          <t>7,5; 8,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,53</t>
+          <t>0,23; 0,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,73</t>
+          <t>7,21; 7,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,08</t>
+          <t>7,15; 7,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,91</t>
+          <t>0,29; 0,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,69</t>
+          <t>7,21; 7,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,98</t>
+          <t>7,47; 8,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,67</t>
+          <t>0,32; 0,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,63</t>
+          <t>7,29; 7,62</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>7,42</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,84</t>
+          <t>7,32; 7,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,19</t>
+          <t>0,66; 1,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,75</t>
+          <t>7,18; 7,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 7,49</t>
+          <t>6,94; 7,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,36</t>
+          <t>0,9; 1,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 7,15</t>
+          <t>6,57; 7,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,6</t>
+          <t>7,21; 7,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,19</t>
+          <t>0,85; 1,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,37</t>
+          <t>6,99; 7,4</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,54</t>
+          <t>7,08; 7,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,02</t>
+          <t>0,22; 1,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 7,5</t>
+          <t>6,95; 7,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,72; 7,22</t>
+          <t>6,91; 7,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,59</t>
+          <t>1,14; 1,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 7,06</t>
+          <t>6,6; 7,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,33</t>
+          <t>7,07; 7,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,2</t>
+          <t>0,44; 1,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,22</t>
+          <t>6,81; 7,22</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,77</t>
+          <t>7,27; 7,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,7</t>
+          <t>1,15; 1,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,6</t>
+          <t>6,95; 7,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,33</t>
+          <t>7,06; 7,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,39</t>
+          <t>1,86; 2,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,52; 7,04</t>
+          <t>6,5; 7,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,46</t>
+          <t>7,23; 7,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 1,95</t>
+          <t>1,57; 1,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 7,24</t>
+          <t>6,79; 7,22</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,27 +1376,27 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>7,09</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,7; 8,17</t>
+          <t>7,76; 8,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,84</t>
+          <t>1,22; 1,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,94</t>
+          <t>7,23; 7,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,36</t>
+          <t>6,88; 7,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,42</t>
+          <t>0,34; 2,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,74; 7,39</t>
+          <t>6,75; 7,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,66</t>
+          <t>7,36; 7,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,99</t>
+          <t>0,53; 2,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 7,55</t>
+          <t>7,05; 7,51</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,89</t>
+          <t>7,54; 8,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 2,77</t>
+          <t>1,9; 2,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,66; 7,29</t>
+          <t>6,7; 7,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,82; 7,28</t>
+          <t>6,86; 7,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,82; 7,44</t>
+          <t>6,83; 7,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,46</t>
+          <t>7,19; 7,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,85</t>
+          <t>2,33; 2,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,3</t>
+          <t>6,84; 7,3</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,76</t>
+          <t>7,59; 7,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,11</t>
+          <t>0,61; 1,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,5</t>
+          <t>7,28; 7,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,29</t>
+          <t>7,19; 7,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,6</t>
+          <t>1,02; 1,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,95; 7,16</t>
+          <t>6,94; 7,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,47</t>
+          <t>7,42; 7,58</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,32</t>
+          <t>0,92; 1,32</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,13; 7,29</t>
+          <t>7,15; 7,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SATIS_SUEÑO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SATIS_SUEÑO-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,77</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8,81</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>8,17</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,81</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,77</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7,34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,53</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>7,88</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,53</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,67</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>8,02</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>8,67</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>7,56</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,21; 0,82</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 8,05</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8,57; 9,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>7,71; 8,55</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,9</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>8,57; 9,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 8,05</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>0,48; 1,27</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7,11; 7,58</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 8,75</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>7,45; 8,29</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 1,2</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>8,25; 8,75</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>7,11; 7,58</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>0,39; 0,9</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 7,74</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8,51; 8,84</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>7,7; 8,3</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 0,91</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>8,51; 8,84</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 7,74</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7,47</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,2</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,92</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,2</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7,45</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,15</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>7,62</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,15</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,46</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,17</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>7,77</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>8,17</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>7,46</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,23; 0,56</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 7,71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7,88; 8,47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>7,5; 8,27</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 0,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 8,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,21; 7,71</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,53; 0,98</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 7,68</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 8,4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>7,15; 7,99</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 0,91</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>7,87; 8,4</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>7,21; 7,68</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>0,44; 0,73</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7,29; 7,62</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7,96; 8,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>7,47; 8,04</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 0,66</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>7,96; 8,35</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>7,29; 7,62</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7,46</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8,13</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,6</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,46</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,09</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>7,23</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,09</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,18</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,11</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>7,42</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>8,11</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>7,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,63; 1,11</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 7,71</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 8,34</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>7,32; 7,89</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 1,16</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>7,92; 8,34</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,18; 7,71</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>0,91; 1,33</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 7,14</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 8,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>6,94; 7,52</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 1,34</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>7,87; 8,31</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 7,14</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>0,83; 1,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,99; 7,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7,95; 8,28</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>7,21; 7,64</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 1,19</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>7,95; 8,28</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>6,99; 7,4</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8,29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,32</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,29</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6,84</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,86</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,84</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7,03</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>7,24</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>8,08</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>7,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,75; 1,19</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 7,49</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 8,48</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7,08; 7,55</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 1,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 8,48</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 7,49</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>1,13; 1,53</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 7,07</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 8,1</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>6,91; 7,4</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 1,57</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>7,64; 8,1</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>6,6; 7,07</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>1,01; 1,3</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 7,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 8,23</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>7,07; 7,4</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 1,21</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>7,92; 8,23</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 7,22</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,26</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,37</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>7,51</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,37</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,26</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,81</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7,38</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,81</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,01</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>7,4</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>7,01</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,13; 1,69</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 7,56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 8,59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>7,27; 7,77</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 1,73</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 8,59</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,95; 7,56</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>1,92; 2,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 7,07</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 7,62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>7,06; 7,53</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 2,39</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>7,13; 7,62</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,5; 7,07</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>1,59; 1,98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 7,22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7,67; 8,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>7,23; 7,56</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 1,96</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>7,67; 8,02</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>6,79; 7,22</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8,28</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>8,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,28</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,57</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>7,3</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8,06</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>7,54</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>8,06</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,24; 1,84</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 7,91</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 8,47</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>7,76; 8,23</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 1,81</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,1; 8,47</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,23; 7,91</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>2,06; 2,69</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 7,38</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7,63; 8,04</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>6,88; 7,41</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 2,41</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>7,63; 8,04</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,75; 7,38</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>1,77; 2,2</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 7,51</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7,91; 8,19</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>7,36; 7,72</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 2,0</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>7,91; 8,19</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>7,05; 7,51</t>
         </is>
       </c>
     </row>
@@ -1496,34 +1496,34 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7,02</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8,31</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>7,85</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,31</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>7,13</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
           <t>7,86</t>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>7,41</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,95; 2,91</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 7,31</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 8,5</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>7,54; 8,12</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 2,84</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>8,13; 8,5</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 7,31</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>2,5; 3,15</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 7,43</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 8,04</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>6,86; 7,39</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 3,07</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>7,65; 8,04</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,83; 7,43</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>2,38; 2,95</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 7,3</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 8,17</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>7,19; 7,61</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 2,86</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>7,9; 8,17</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>6,84; 7,3</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,32</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>7,7</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>8,32</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,93</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>7,31</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>7,93</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7,22</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,12</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>7,49</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>8,12</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,96; 1,16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 7,5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 8,41</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>7,59; 7,81</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,61; 1,1</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>8,23; 8,41</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>7,28; 7,5</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>1,5; 1,71</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 7,16</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7,85; 8,02</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>7,19; 7,42</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 1,59</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>7,85; 8,02</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>6,94; 7,16</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>1,26; 1,41</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7,15; 7,3</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 8,18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>7,42; 7,58</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 1,32</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>8,06; 8,18</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>7,15; 7,3</t>
         </is>
       </c>
     </row>
